--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H2">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I2">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J2">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.66581659159215</v>
+        <v>0.1382803333333333</v>
       </c>
       <c r="N2">
-        <v>0.66581659159215</v>
+        <v>0.414841</v>
       </c>
       <c r="O2">
-        <v>0.4263040048747656</v>
+        <v>0.05497238930810543</v>
       </c>
       <c r="P2">
-        <v>0.4263040048747656</v>
+        <v>0.05497238930810543</v>
       </c>
       <c r="Q2">
-        <v>3.523048070602253</v>
+        <v>0.7676458010845556</v>
       </c>
       <c r="R2">
-        <v>3.523048070602253</v>
+        <v>6.908812209761</v>
       </c>
       <c r="S2">
-        <v>0.2256382879041804</v>
+        <v>0.02896207228333143</v>
       </c>
       <c r="T2">
-        <v>0.2256382879041804</v>
+        <v>0.02896207228333143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.29131913366364</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H3">
-        <v>5.29131913366364</v>
+        <v>16.654121</v>
       </c>
       <c r="I3">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J3">
-        <v>0.529289627411466</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.896018587009434</v>
+        <v>0.696771</v>
       </c>
       <c r="N3">
-        <v>0.896018587009434</v>
+        <v>2.090313</v>
       </c>
       <c r="O3">
-        <v>0.5736959951252345</v>
+        <v>0.2769964878394223</v>
       </c>
       <c r="P3">
-        <v>0.5736959951252345</v>
+        <v>0.2769964878394223</v>
       </c>
       <c r="Q3">
-        <v>4.741120293561277</v>
+        <v>3.868036181097</v>
       </c>
       <c r="R3">
-        <v>4.741120293561277</v>
+        <v>34.812325629873</v>
       </c>
       <c r="S3">
-        <v>0.3036513395072856</v>
+        <v>0.1459349394124192</v>
       </c>
       <c r="T3">
-        <v>0.3036513395072856</v>
+        <v>0.1459349394124192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.97060210072412</v>
+        <v>5.551373666666667</v>
       </c>
       <c r="H4">
-        <v>3.97060210072412</v>
+        <v>16.654121</v>
       </c>
       <c r="I4">
-        <v>0.3971785585792734</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="J4">
-        <v>0.3971785585792734</v>
+        <v>0.5268476165554097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.66581659159215</v>
+        <v>1.680399333333333</v>
       </c>
       <c r="N4">
-        <v>0.66581659159215</v>
+        <v>5.041198</v>
       </c>
       <c r="O4">
-        <v>0.4263040048747656</v>
+        <v>0.6680311228524723</v>
       </c>
       <c r="P4">
-        <v>0.4263040048747656</v>
+        <v>0.6680311228524722</v>
       </c>
       <c r="Q4">
-        <v>2.643692757272764</v>
+        <v>9.328524608550888</v>
       </c>
       <c r="R4">
-        <v>2.643692757272764</v>
+        <v>83.95672147695799</v>
       </c>
       <c r="S4">
-        <v>0.1693188101727309</v>
+        <v>0.3519506048596591</v>
       </c>
       <c r="T4">
-        <v>0.1693188101727309</v>
+        <v>0.3519506048596591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.97060210072412</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H5">
-        <v>3.97060210072412</v>
+        <v>11.938186</v>
       </c>
       <c r="I5">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J5">
-        <v>0.3971785585792734</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.896018587009434</v>
+        <v>0.1382803333333333</v>
       </c>
       <c r="N5">
-        <v>0.896018587009434</v>
+        <v>0.414841</v>
       </c>
       <c r="O5">
-        <v>0.5736959951252345</v>
+        <v>0.05497238930810543</v>
       </c>
       <c r="P5">
-        <v>0.5736959951252345</v>
+        <v>0.05497238930810543</v>
       </c>
       <c r="Q5">
-        <v>3.557733283867516</v>
+        <v>0.5502721131584445</v>
       </c>
       <c r="R5">
-        <v>3.557733283867516</v>
+        <v>4.952449018426</v>
       </c>
       <c r="S5">
-        <v>0.2278597484065425</v>
+        <v>0.02076090391464403</v>
       </c>
       <c r="T5">
-        <v>0.2278597484065425</v>
+        <v>0.02076090391464403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.735099035103003</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H6">
-        <v>0.735099035103003</v>
+        <v>11.938186</v>
       </c>
       <c r="I6">
-        <v>0.07353181400926059</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="J6">
-        <v>0.07353181400926059</v>
+        <v>0.3776605706236408</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.66581659159215</v>
+        <v>0.696771</v>
       </c>
       <c r="N6">
-        <v>0.66581659159215</v>
+        <v>2.090313</v>
       </c>
       <c r="O6">
-        <v>0.4263040048747656</v>
+        <v>0.2769964878394223</v>
       </c>
       <c r="P6">
-        <v>0.4263040048747656</v>
+        <v>0.2769964878394223</v>
       </c>
       <c r="Q6">
-        <v>0.4894411340349597</v>
+        <v>2.772727265802</v>
       </c>
       <c r="R6">
-        <v>0.4894411340349597</v>
+        <v>24.954545392218</v>
       </c>
       <c r="S6">
-        <v>0.03134690679785418</v>
+        <v>0.1046106516581806</v>
       </c>
       <c r="T6">
-        <v>0.03134690679785418</v>
+        <v>0.1046106516581806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.979395333333333</v>
+      </c>
+      <c r="H7">
+        <v>11.938186</v>
+      </c>
+      <c r="I7">
+        <v>0.3776605706236408</v>
+      </c>
+      <c r="J7">
+        <v>0.3776605706236408</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.680399333333333</v>
+      </c>
+      <c r="N7">
+        <v>5.041198</v>
+      </c>
+      <c r="O7">
+        <v>0.6680311228524723</v>
+      </c>
+      <c r="P7">
+        <v>0.6680311228524722</v>
+      </c>
+      <c r="Q7">
+        <v>6.68697326520311</v>
+      </c>
+      <c r="R7">
+        <v>60.182759386828</v>
+      </c>
+      <c r="S7">
+        <v>0.2522890150508162</v>
+      </c>
+      <c r="T7">
+        <v>0.2522890150508162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.044456</v>
+      </c>
+      <c r="H8">
+        <v>0.133368</v>
+      </c>
+      <c r="I8">
+        <v>0.004219052625158775</v>
+      </c>
+      <c r="J8">
+        <v>0.004219052625158774</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1382803333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.414841</v>
+      </c>
+      <c r="O8">
+        <v>0.05497238930810543</v>
+      </c>
+      <c r="P8">
+        <v>0.05497238930810543</v>
+      </c>
+      <c r="Q8">
+        <v>0.006147390498666666</v>
+      </c>
+      <c r="R8">
+        <v>0.05532651448799999</v>
+      </c>
+      <c r="S8">
+        <v>0.0002319314034216124</v>
+      </c>
+      <c r="T8">
+        <v>0.0002319314034216123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.044456</v>
+      </c>
+      <c r="H9">
+        <v>0.133368</v>
+      </c>
+      <c r="I9">
+        <v>0.004219052625158775</v>
+      </c>
+      <c r="J9">
+        <v>0.004219052625158774</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.696771</v>
+      </c>
+      <c r="N9">
+        <v>2.090313</v>
+      </c>
+      <c r="O9">
+        <v>0.2769964878394223</v>
+      </c>
+      <c r="P9">
+        <v>0.2769964878394223</v>
+      </c>
+      <c r="Q9">
+        <v>0.030975651576</v>
+      </c>
+      <c r="R9">
+        <v>0.278780864184</v>
+      </c>
+      <c r="S9">
+        <v>0.001168662759178675</v>
+      </c>
+      <c r="T9">
+        <v>0.001168662759178675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.044456</v>
+      </c>
+      <c r="H10">
+        <v>0.133368</v>
+      </c>
+      <c r="I10">
+        <v>0.004219052625158775</v>
+      </c>
+      <c r="J10">
+        <v>0.004219052625158774</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.680399333333333</v>
+      </c>
+      <c r="N10">
+        <v>5.041198</v>
+      </c>
+      <c r="O10">
+        <v>0.6680311228524723</v>
+      </c>
+      <c r="P10">
+        <v>0.6680311228524722</v>
+      </c>
+      <c r="Q10">
+        <v>0.07470383276266665</v>
+      </c>
+      <c r="R10">
+        <v>0.6723344948639999</v>
+      </c>
+      <c r="S10">
+        <v>0.002818458462558487</v>
+      </c>
+      <c r="T10">
+        <v>0.002818458462558486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.735099035103003</v>
-      </c>
-      <c r="H7">
-        <v>0.735099035103003</v>
-      </c>
-      <c r="I7">
-        <v>0.07353181400926059</v>
-      </c>
-      <c r="J7">
-        <v>0.07353181400926059</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.896018587009434</v>
-      </c>
-      <c r="N7">
-        <v>0.896018587009434</v>
-      </c>
-      <c r="O7">
-        <v>0.5736959951252345</v>
-      </c>
-      <c r="P7">
-        <v>0.5736959951252345</v>
-      </c>
-      <c r="Q7">
-        <v>0.6586623987449911</v>
-      </c>
-      <c r="R7">
-        <v>0.6586623987449911</v>
-      </c>
-      <c r="S7">
-        <v>0.04218490721140641</v>
-      </c>
-      <c r="T7">
-        <v>0.04218490721140641</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.885213</v>
+      </c>
+      <c r="I11">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J11">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1382803333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.414841</v>
+      </c>
+      <c r="O11">
+        <v>0.05497238930810543</v>
+      </c>
+      <c r="P11">
+        <v>0.05497238930810543</v>
+      </c>
+      <c r="Q11">
+        <v>0.1329894051258889</v>
+      </c>
+      <c r="R11">
+        <v>1.196904646133</v>
+      </c>
+      <c r="S11">
+        <v>0.00501748170670836</v>
+      </c>
+      <c r="T11">
+        <v>0.00501748170670836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.885213</v>
+      </c>
+      <c r="I12">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J12">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.696771</v>
+      </c>
+      <c r="N12">
+        <v>2.090313</v>
+      </c>
+      <c r="O12">
+        <v>0.2769964878394223</v>
+      </c>
+      <c r="P12">
+        <v>0.2769964878394223</v>
+      </c>
+      <c r="Q12">
+        <v>0.670110915741</v>
+      </c>
+      <c r="R12">
+        <v>6.030998241669001</v>
+      </c>
+      <c r="S12">
+        <v>0.02528223400964387</v>
+      </c>
+      <c r="T12">
+        <v>0.02528223400964387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9617376666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.885213</v>
+      </c>
+      <c r="I13">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="J13">
+        <v>0.09127276019579078</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.680399333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.041198</v>
+      </c>
+      <c r="O13">
+        <v>0.6680311228524723</v>
+      </c>
+      <c r="P13">
+        <v>0.6680311228524722</v>
+      </c>
+      <c r="Q13">
+        <v>1.616103333908222</v>
+      </c>
+      <c r="R13">
+        <v>14.544930005174</v>
+      </c>
+      <c r="S13">
+        <v>0.06097304447943856</v>
+      </c>
+      <c r="T13">
+        <v>0.06097304447943855</v>
       </c>
     </row>
   </sheetData>
